--- a/DONE/BATHAN, ELVIRA.xlsx
+++ b/DONE/BATHAN, ELVIRA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\DONE ENCODING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -706,14 +706,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -723,9 +726,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1616,9 +1616,9 @@
   <dimension ref="A2:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,14 +1648,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1667,16 +1667,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>38362</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1690,14 +1690,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1730,18 +1730,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3677,19 +3677,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
@@ -3698,7 +3698,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -3706,8 +3706,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                         OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3755,14 +3755,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3774,16 +3774,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>38362</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3797,14 +3797,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3837,18 +3837,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/DONE/BATHAN, ELVIRA.xlsx
+++ b/DONE/BATHAN, ELVIRA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -317,6 +317,15 @@
   </si>
   <si>
     <t>3/19,25/2023</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>5/22-26,29-31/2023</t>
+  </si>
+  <si>
+    <t>6/12-16/2023</t>
   </si>
 </sst>
 </file>
@@ -1615,10 +1624,10 @@
   </sheetPr>
   <dimension ref="A2:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,7 +1797,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>46.25</v>
+        <v>47.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1798,7 +1807,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>52.25</v>
+        <v>53.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3372,15 +3381,19 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="43"/>
+      <c r="A84" s="43">
+        <v>45017</v>
+      </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="42"/>
       <c r="E84" s="10"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="42"/>
       <c r="I84" s="10"/>
@@ -3722,10 +3735,10 @@
   </sheetPr>
   <dimension ref="A2:K59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3895,7 +3908,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>26.625</v>
+        <v>13.625</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4417,7 +4430,9 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="49" t="s">
+        <v>89</v>
+      </c>
       <c r="B33" s="21"/>
       <c r="C33" s="14"/>
       <c r="D33" s="42"/>
@@ -4433,10 +4448,16 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="43">
+        <v>45047</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="C34" s="14"/>
-      <c r="D34" s="42"/>
+      <c r="D34" s="42">
+        <v>8</v>
+      </c>
       <c r="E34" s="10"/>
       <c r="F34" s="21"/>
       <c r="G34" s="14" t="str">
@@ -4446,13 +4467,19 @@
       <c r="H34" s="42"/>
       <c r="I34" s="10"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="21"/>
+      <c r="K34" s="21" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="21" t="s">
+        <v>79</v>
+      </c>
       <c r="C35" s="14"/>
-      <c r="D35" s="42"/>
+      <c r="D35" s="42">
+        <v>5</v>
+      </c>
       <c r="E35" s="10"/>
       <c r="F35" s="21"/>
       <c r="G35" s="14" t="str">
@@ -4462,7 +4489,9 @@
       <c r="H35" s="42"/>
       <c r="I35" s="10"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="21"/>
+      <c r="K35" s="21" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
@@ -4871,7 +4900,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
